--- a/data/trans_bre/P57B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.284939547853396</v>
+        <v>8.284939547853392</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3784177480616429</v>
+        <v>0.3784177480616427</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.076809983633873</v>
+        <v>4.291244626648625</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1599465248146084</v>
+        <v>0.1704909403778531</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.65527996767848</v>
+        <v>12.25909779198872</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6476829103267355</v>
+        <v>0.6472241344401907</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.685057278345809</v>
+        <v>2.685057278345805</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.3160951328369684</v>
+        <v>0.3160951328369678</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.011446043783443</v>
+        <v>1.049471132018066</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1149413034643847</v>
+        <v>0.1131436000777398</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.333163193690386</v>
+        <v>4.408927475471119</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5709776970168973</v>
+        <v>0.5887346572009844</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.15152337181882</v>
+        <v>2.151523371818818</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.3383900998299405</v>
+        <v>0.3383900998299403</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6442377222649678</v>
+        <v>-0.8100542575334089</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.09335217102685626</v>
+        <v>-0.100379980686816</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.798050555315339</v>
+        <v>4.660127951809195</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.003478712485715</v>
+        <v>0.9841692231145673</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.076017922270992</v>
+        <v>3.108966254856816</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2758839164005799</v>
+        <v>0.284737773049814</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.861813491668166</v>
+        <v>5.905230175435632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6191781853901844</v>
+        <v>0.6238837312360301</v>
       </c>
     </row>
     <row r="16">
